--- a/general/Genetic algorithm/results.xlsx
+++ b/general/Genetic algorithm/results.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Tamir\תואר שני\master\Master_git\Master\general\Genetic algorithm\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\drive\master\Master_git\Master\general\Genetic algorithm\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3332075A-F6EB-4901-8669-C5161C9826D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62657CCD-74D1-4E43-B716-AF9AC8880B2D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,19 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="30">
-  <si>
-    <t>conf</t>
-  </si>
-  <si>
-    <t>concept</t>
-  </si>
-  <si>
-    <t>mu</t>
-  </si>
-  <si>
-    <t>z</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="30">
   <si>
     <t>2_07_6_2_5_0_31</t>
   </si>
@@ -111,16 +99,28 @@
     <t>inbar</t>
   </si>
   <si>
-    <t>run3 -183Gens</t>
-  </si>
-  <si>
-    <t>run2- 196 Gens</t>
-  </si>
-  <si>
-    <t>run 1 -231 Gens</t>
-  </si>
-  <si>
     <t>% simulated</t>
+  </si>
+  <si>
+    <t>VM 1 -231 Gens</t>
+  </si>
+  <si>
+    <t>VM2- 196 Gens</t>
+  </si>
+  <si>
+    <t>VM3 -183Gens</t>
+  </si>
+  <si>
+    <t>Concept</t>
+  </si>
+  <si>
+    <t>Configuration</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>𝜇</t>
   </si>
 </sst>
 </file>
@@ -150,7 +150,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="16">
+  <borders count="20">
     <border>
       <left/>
       <right/>
@@ -177,49 +177,6 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
       <right style="medium">
         <color indexed="64"/>
       </right>
@@ -346,10 +303,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="64"/>
       </right>
       <top/>
@@ -359,13 +316,98 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
+      <left style="medium">
         <color indexed="64"/>
       </left>
-      <right style="medium">
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
         <color indexed="64"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -375,30 +417,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -407,34 +455,43 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -553,7 +610,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>run 1 -231 Gens</c:v>
+                  <c:v>VM 1 -231 Gens</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -640,7 +697,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>run2- 196 Gens</c:v>
+                  <c:v>VM2- 196 Gens</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -727,7 +784,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>run3 -183Gens</c:v>
+                  <c:v>VM3 -183Gens</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -1707,15 +1764,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>904874</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>23811</xdr:rowOff>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>166686</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>295274</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2008,8 +2065,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:G20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2024,349 +2081,357 @@
   <sheetData>
     <row r="2" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
+      </c>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="22"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="8" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E4" s="4" t="s">
+      <c r="B4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>29</v>
+      <c r="G4" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="5" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D5" s="4">
+      <c r="B5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="2">
         <v>0</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="3">
         <v>0.54400000000000004</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="18">
         <v>3360</v>
       </c>
-      <c r="G5" s="12">
+      <c r="G5" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="6" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="8">
+      <c r="B6" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="5">
         <v>1E-3</v>
       </c>
-      <c r="E6" s="8">
+      <c r="E6" s="23">
         <v>0.53100000000000003</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="18">
         <v>858</v>
       </c>
-      <c r="G6" s="12">
+      <c r="G6" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="7" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="4">
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="3">
         <v>0.52200000000000002</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="18">
         <v>1298</v>
       </c>
-      <c r="G7" s="12">
+      <c r="G7" s="9">
         <f>569/F7*100</f>
         <v>43.836671802773495</v>
       </c>
     </row>
     <row r="8" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="14" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="15">
+      <c r="B8" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12">
         <v>0.124</v>
       </c>
-      <c r="E8" s="15">
+      <c r="E8" s="24">
         <v>0.45700000000000002</v>
       </c>
-      <c r="F8" s="16">
+      <c r="F8" s="19">
         <v>3696</v>
       </c>
-      <c r="G8" s="17">
+      <c r="G8" s="13">
         <f>179/F8*100</f>
         <v>4.8430735930735924</v>
       </c>
     </row>
     <row r="9" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B9" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="11" t="s">
+      <c r="B9" s="15" t="s">
         <v>24</v>
+      </c>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="22"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="8" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B10" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E10" s="4" t="s">
+      <c r="B10" s="1" t="str">
+        <f>B4</f>
+        <v>Concept</v>
+      </c>
+      <c r="C10" s="2" t="str">
+        <f>C4</f>
+        <v>Configuration</v>
+      </c>
+      <c r="D10" s="2" t="str">
+        <f>D4</f>
+        <v>Z</v>
+      </c>
+      <c r="E10" s="3" t="str">
+        <f>E4</f>
+        <v>𝜇</v>
+      </c>
+      <c r="F10" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G10" s="12"/>
+      <c r="G10" s="9"/>
     </row>
     <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B11" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="4">
+      <c r="B11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="2">
         <v>0</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E11" s="3">
         <v>0.61599999999999999</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F11" s="18">
         <v>1232</v>
       </c>
-      <c r="G11" s="12">
+      <c r="G11" s="9">
         <f>762*100/F11</f>
         <v>61.850649350649348</v>
       </c>
     </row>
     <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D12" s="4">
+      <c r="B12" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D12" s="2">
         <v>1E-3</v>
       </c>
-      <c r="E12" s="4">
+      <c r="E12" s="3">
         <v>0.52900000000000003</v>
       </c>
-      <c r="F12" s="4">
+      <c r="F12" s="18">
         <v>1110</v>
       </c>
-      <c r="G12" s="12">
+      <c r="G12" s="9">
         <f>763/1110*100</f>
         <v>68.738738738738732</v>
       </c>
     </row>
     <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B13" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" s="4">
+      <c r="B13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="2">
         <v>2E-3</v>
       </c>
-      <c r="E13" s="4">
+      <c r="E13" s="3">
         <v>0.51500000000000001</v>
       </c>
-      <c r="F13" s="4">
+      <c r="F13" s="18">
         <v>1100</v>
       </c>
-      <c r="G13" s="12">
+      <c r="G13" s="9">
         <f>701/1100*100</f>
         <v>63.727272727272734</v>
       </c>
     </row>
     <row r="14" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D14" s="10">
+      <c r="B14" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="7">
         <v>0.124</v>
       </c>
-      <c r="E14" s="10">
+      <c r="E14" s="25">
         <v>0.45700000000000002</v>
       </c>
-      <c r="F14" s="6">
+      <c r="F14" s="20">
         <v>3696</v>
       </c>
-      <c r="G14" s="13">
+      <c r="G14" s="10">
         <f>179/F14*100</f>
         <v>4.8430735930735924</v>
       </c>
     </row>
     <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B15" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="20"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="18" t="s">
+      <c r="B15" s="15" t="s">
         <v>25</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="22"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="14" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="4" t="s">
+      <c r="B16" s="1" t="str">
+        <f>B4</f>
+        <v>Concept</v>
+      </c>
+      <c r="C16" s="2" t="str">
+        <f>C4</f>
+        <v>Configuration</v>
+      </c>
+      <c r="D16" s="2" t="str">
+        <f>D4</f>
+        <v>Z</v>
+      </c>
+      <c r="E16" s="3" t="str">
+        <f>E4</f>
+        <v>𝜇</v>
+      </c>
+      <c r="F16" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="F16" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="G16" s="5"/>
+      <c r="G16" s="3"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B17" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C17" s="8" t="s">
-        <v>10</v>
-      </c>
-      <c r="D17" s="8">
+      <c r="B17" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="D17" s="5">
         <v>0</v>
       </c>
-      <c r="E17" s="8">
+      <c r="E17" s="23">
         <v>0.82199999999999995</v>
       </c>
-      <c r="F17" s="4">
+      <c r="F17" s="18">
         <v>968</v>
       </c>
-      <c r="G17" s="5">
+      <c r="G17" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B18" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="D18" s="8">
+      <c r="B18" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D18" s="5">
         <v>1E-3</v>
       </c>
-      <c r="E18" s="8">
+      <c r="E18" s="23">
         <v>0.53700000000000003</v>
       </c>
-      <c r="F18" s="4">
+      <c r="F18" s="18">
         <v>858</v>
       </c>
-      <c r="G18" s="12">
+      <c r="G18" s="9">
         <v>100</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B19" s="7" t="s">
-        <v>4</v>
-      </c>
-      <c r="C19" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="D19" s="8">
+      <c r="B19" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="D19" s="5">
         <v>0.123</v>
       </c>
-      <c r="E19" s="8">
+      <c r="E19" s="23">
         <v>0.52600000000000002</v>
       </c>
-      <c r="F19" s="4">
+      <c r="F19" s="18">
         <v>260</v>
       </c>
-      <c r="G19" s="5">
+      <c r="G19" s="3">
         <v>100</v>
       </c>
     </row>
     <row r="20" spans="2:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="10">
+      <c r="B20" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="7">
         <v>0.124</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="25">
         <v>0.45700000000000002</v>
       </c>
-      <c r="F20" s="6">
+      <c r="F20" s="20">
         <v>3696</v>
       </c>
-      <c r="G20" s="13">
+      <c r="G20" s="10">
         <f>179/F20*100</f>
         <v>4.8430735930735924</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="B3:F3"/>
-    <mergeCell ref="B9:F9"/>
-    <mergeCell ref="B15:F15"/>
+    <mergeCell ref="B3:E3"/>
+    <mergeCell ref="B9:E9"/>
+    <mergeCell ref="B15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
